--- a/Datasets/Annotated_WEAR_7001_7015_deID.xlsx
+++ b/Datasets/Annotated_WEAR_7001_7015_deID.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lagana01/Library/Mobile Documents/com~apple~CloudDocs/Research/CAR-T/Cytokine/Feb24_crs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a123/Desktop/CMU/Capstone/CRS-Detection/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F711CE0F-9E41-BF4F-9C7C-B728C74DCA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A3A2B6-9EB4-724B-8B0D-D3A6570308DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="56160" windowHeight="26280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Npx Data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2425" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2521" uniqueCount="647">
   <si>
     <t>ADRO04_IO_All_Plates_01082024</t>
   </si>
@@ -1988,7 +1988,7 @@
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -2087,9 +2087,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2127,7 +2127,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2233,7 +2233,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2375,7 +2375,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2385,26 +2385,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DU244"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="DP1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="DU19" sqref="DU19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="8" width="30.7109375" style="11" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" style="9" customWidth="1"/>
-    <col min="10" max="10" width="40.7109375" customWidth="1"/>
-    <col min="11" max="12" width="30.7109375" style="9" customWidth="1"/>
-    <col min="13" max="13" width="30.7109375" customWidth="1"/>
-    <col min="14" max="16" width="30.7109375" style="9" customWidth="1"/>
-    <col min="17" max="17" width="30.7109375" customWidth="1"/>
-    <col min="18" max="18" width="30.7109375" style="13" customWidth="1"/>
-    <col min="19" max="29" width="30.7109375" customWidth="1"/>
+    <col min="2" max="4" width="30.6640625" customWidth="1"/>
+    <col min="5" max="8" width="30.6640625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="40.6640625" customWidth="1"/>
+    <col min="11" max="12" width="30.6640625" style="9" customWidth="1"/>
+    <col min="13" max="13" width="30.6640625" customWidth="1"/>
+    <col min="14" max="16" width="30.6640625" style="9" customWidth="1"/>
+    <col min="17" max="17" width="30.6640625" customWidth="1"/>
+    <col min="18" max="18" width="30.6640625" style="13" customWidth="1"/>
+    <col min="19" max="29" width="30.6640625" customWidth="1"/>
     <col min="30" max="125" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:125">
+    <row r="1" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2412,12 +2412,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:125">
+    <row r="2" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:125">
+    <row r="3" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:125">
+    <row r="4" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:125">
+    <row r="5" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:125">
+    <row r="6" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>196</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="8" spans="1:125">
+    <row r="8" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>289</v>
       </c>
@@ -3659,8 +3659,296 @@
       <c r="AC8" s="4" t="s">
         <v>317</v>
       </c>
+      <c r="AD8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>26</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>28</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>29</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>30</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>31</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>32</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>33</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>34</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>37</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>38</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>39</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>40</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>41</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>42</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>43</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>44</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>45</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>46</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>47</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>48</v>
+      </c>
+      <c r="BU8" t="s">
+        <v>49</v>
+      </c>
+      <c r="BV8" t="s">
+        <v>50</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>51</v>
+      </c>
+      <c r="BX8" t="s">
+        <v>52</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>53</v>
+      </c>
+      <c r="BZ8" t="s">
+        <v>54</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>55</v>
+      </c>
+      <c r="CB8" t="s">
+        <v>56</v>
+      </c>
+      <c r="CC8" t="s">
+        <v>57</v>
+      </c>
+      <c r="CD8" t="s">
+        <v>58</v>
+      </c>
+      <c r="CE8" t="s">
+        <v>59</v>
+      </c>
+      <c r="CF8" t="s">
+        <v>60</v>
+      </c>
+      <c r="CG8" t="s">
+        <v>61</v>
+      </c>
+      <c r="CH8" t="s">
+        <v>62</v>
+      </c>
+      <c r="CI8" t="s">
+        <v>63</v>
+      </c>
+      <c r="CJ8" t="s">
+        <v>64</v>
+      </c>
+      <c r="CK8" t="s">
+        <v>65</v>
+      </c>
+      <c r="CL8" t="s">
+        <v>66</v>
+      </c>
+      <c r="CM8" t="s">
+        <v>67</v>
+      </c>
+      <c r="CN8" t="s">
+        <v>68</v>
+      </c>
+      <c r="CO8" t="s">
+        <v>69</v>
+      </c>
+      <c r="CP8" t="s">
+        <v>70</v>
+      </c>
+      <c r="CQ8" t="s">
+        <v>71</v>
+      </c>
+      <c r="CR8" t="s">
+        <v>72</v>
+      </c>
+      <c r="CS8" t="s">
+        <v>73</v>
+      </c>
+      <c r="CT8" t="s">
+        <v>74</v>
+      </c>
+      <c r="CU8" t="s">
+        <v>75</v>
+      </c>
+      <c r="CV8" t="s">
+        <v>76</v>
+      </c>
+      <c r="CW8" t="s">
+        <v>77</v>
+      </c>
+      <c r="CX8" t="s">
+        <v>78</v>
+      </c>
+      <c r="CY8" t="s">
+        <v>79</v>
+      </c>
+      <c r="CZ8" t="s">
+        <v>80</v>
+      </c>
+      <c r="DA8" t="s">
+        <v>81</v>
+      </c>
+      <c r="DB8" t="s">
+        <v>82</v>
+      </c>
+      <c r="DC8" t="s">
+        <v>83</v>
+      </c>
+      <c r="DD8" t="s">
+        <v>84</v>
+      </c>
+      <c r="DE8" t="s">
+        <v>85</v>
+      </c>
+      <c r="DF8" t="s">
+        <v>86</v>
+      </c>
+      <c r="DG8" t="s">
+        <v>87</v>
+      </c>
+      <c r="DH8" t="s">
+        <v>88</v>
+      </c>
+      <c r="DI8" t="s">
+        <v>89</v>
+      </c>
+      <c r="DJ8" t="s">
+        <v>90</v>
+      </c>
+      <c r="DK8" t="s">
+        <v>91</v>
+      </c>
+      <c r="DL8" t="s">
+        <v>92</v>
+      </c>
+      <c r="DM8" t="s">
+        <v>93</v>
+      </c>
+      <c r="DN8" t="s">
+        <v>94</v>
+      </c>
+      <c r="DO8" t="s">
+        <v>95</v>
+      </c>
+      <c r="DP8" t="s">
+        <v>96</v>
+      </c>
+      <c r="DQ8" t="s">
+        <v>97</v>
+      </c>
+      <c r="DR8" t="s">
+        <v>98</v>
+      </c>
+      <c r="DS8" t="s">
+        <v>99</v>
+      </c>
+      <c r="DT8" t="s">
+        <v>100</v>
+      </c>
+      <c r="DU8" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="9" spans="1:125">
+    <row r="9" spans="1:125" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>318</v>
       </c>
@@ -4032,7 +4320,7 @@
         <v>4.7985076904296875E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:125">
+    <row r="10" spans="1:125" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>335</v>
       </c>
@@ -4404,7 +4692,7 @@
         <v>0.12994575500488281</v>
       </c>
     </row>
-    <row r="11" spans="1:125">
+    <row r="11" spans="1:125" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>339</v>
       </c>
@@ -4776,7 +5064,7 @@
         <v>0.12792491912841797</v>
       </c>
     </row>
-    <row r="12" spans="1:125">
+    <row r="12" spans="1:125" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>340</v>
       </c>
@@ -5148,7 +5436,7 @@
         <v>-5.3275108337402344E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:125">
+    <row r="13" spans="1:125" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>344</v>
       </c>
@@ -5520,7 +5808,7 @@
         <v>-6.5033912658691406E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:125">
+    <row r="14" spans="1:125" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>348</v>
       </c>
@@ -5892,7 +6180,7 @@
         <v>-0.17238521575927734</v>
       </c>
     </row>
-    <row r="15" spans="1:125">
+    <row r="15" spans="1:125" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>351</v>
       </c>
@@ -6264,7 +6552,7 @@
         <v>2.9745101928710938E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:125">
+    <row r="16" spans="1:125" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>355</v>
       </c>
@@ -6636,7 +6924,7 @@
         <v>0.10016536712646484</v>
       </c>
     </row>
-    <row r="17" spans="2:125">
+    <row r="17" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>359</v>
       </c>
@@ -7008,7 +7296,7 @@
         <v>1.1465072631835938E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:125">
+    <row r="18" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>363</v>
       </c>
@@ -7380,7 +7668,7 @@
         <v>-3.6854743957519531E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:125">
+    <row r="19" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>366</v>
       </c>
@@ -7752,7 +8040,7 @@
         <v>-8.0051422119140625E-3</v>
       </c>
     </row>
-    <row r="20" spans="2:125">
+    <row r="20" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>368</v>
       </c>
@@ -8124,7 +8412,7 @@
         <v>-7.0875167846679688E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:125">
+    <row r="21" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>371</v>
       </c>
@@ -8489,13 +8777,13 @@
         <v>334</v>
       </c>
       <c r="DT21">
-        <v>-4.5206069946289063E-2</v>
+        <v>-4.5206069946289062E-2</v>
       </c>
       <c r="DU21">
         <v>-0.15586471557617188</v>
       </c>
     </row>
-    <row r="22" spans="2:125">
+    <row r="22" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>376</v>
       </c>
@@ -8860,13 +9148,13 @@
         <v>334</v>
       </c>
       <c r="DT22">
-        <v>-2.8924942016601563E-2</v>
+        <v>-2.8924942016601562E-2</v>
       </c>
       <c r="DU22">
         <v>-0.10377407073974609</v>
       </c>
     </row>
-    <row r="23" spans="2:125">
+    <row r="23" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>378</v>
       </c>
@@ -9231,13 +9519,13 @@
         <v>334</v>
       </c>
       <c r="DT23">
-        <v>8.7854385375976563E-2</v>
+        <v>8.7854385375976562E-2</v>
       </c>
       <c r="DU23">
         <v>7.5550079345703125E-3</v>
       </c>
     </row>
-    <row r="24" spans="2:125">
+    <row r="24" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>380</v>
       </c>
@@ -9608,7 +9896,7 @@
         <v>7.6344490051269531E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:125">
+    <row r="25" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>382</v>
       </c>
@@ -9976,10 +10264,10 @@
         <v>-3.4205436706542969E-2</v>
       </c>
       <c r="DU25">
-        <v>-5.4750442504882813E-3</v>
+        <v>-5.4750442504882812E-3</v>
       </c>
     </row>
-    <row r="26" spans="2:125">
+    <row r="26" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>384</v>
       </c>
@@ -10348,10 +10636,10 @@
         <v>-1.0285377502441406E-2</v>
       </c>
       <c r="DU26">
-        <v>-8.4375381469726563E-2</v>
+        <v>-8.4375381469726562E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:125">
+    <row r="27" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>385</v>
       </c>
@@ -10717,13 +11005,13 @@
         <v>334</v>
       </c>
       <c r="DT27">
-        <v>6.8254470825195313E-3</v>
+        <v>6.8254470825195312E-3</v>
       </c>
       <c r="DU27">
-        <v>-7.9713821411132813E-2</v>
+        <v>-7.9713821411132812E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:125">
+    <row r="28" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>386</v>
       </c>
@@ -11095,7 +11383,7 @@
         <v>-9.6944808959960938E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:125">
+    <row r="29" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>387</v>
       </c>
@@ -11467,7 +11755,7 @@
         <v>-4.0904045104980469E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:125">
+    <row r="30" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>388</v>
       </c>
@@ -11839,7 +12127,7 @@
         <v>-0.20830440521240234</v>
       </c>
     </row>
-    <row r="31" spans="2:125">
+    <row r="31" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>389</v>
       </c>
@@ -12211,7 +12499,7 @@
         <v>-0.13963413238525391</v>
       </c>
     </row>
-    <row r="32" spans="2:125">
+    <row r="32" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>390</v>
       </c>
@@ -12583,7 +12871,7 @@
         <v>4.0724754333496094E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:125">
+    <row r="33" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>391</v>
       </c>
@@ -12955,7 +13243,7 @@
         <v>-4.0984153747558594E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:125">
+    <row r="34" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>392</v>
       </c>
@@ -13324,10 +13612,10 @@
         <v>0.28049468994140625</v>
       </c>
       <c r="DU34">
-        <v>3.0755996704101563E-2</v>
+        <v>3.0755996704101562E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:125">
+    <row r="35" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>393</v>
       </c>
@@ -13698,7 +13986,7 @@
         <v>-1.3344764709472656E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:125">
+    <row r="36" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>395</v>
       </c>
@@ -14069,7 +14357,7 @@
         <v>-4.5245170593261719E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:125">
+    <row r="37" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>396</v>
       </c>
@@ -14440,7 +14728,7 @@
         <v>-7.4338912963867188E-3</v>
       </c>
     </row>
-    <row r="38" spans="2:125">
+    <row r="38" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>397</v>
       </c>
@@ -14805,13 +15093,13 @@
         <v>334</v>
       </c>
       <c r="DT38">
-        <v>-2.8116226196289063E-2</v>
+        <v>-2.8116226196289062E-2</v>
       </c>
       <c r="DU38">
         <v>-1.5114784240722656E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:125">
+    <row r="39" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>398</v>
       </c>
@@ -15182,7 +15470,7 @@
         <v>-4.6705245971679688E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:125">
+    <row r="40" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>399</v>
       </c>
@@ -15548,13 +15836,13 @@
         <v>334</v>
       </c>
       <c r="DT40">
-        <v>-1.8594741821289063E-2</v>
+        <v>-1.8594741821289062E-2</v>
       </c>
       <c r="DU40">
         <v>1.3515472412109375E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:125">
+    <row r="41" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>400</v>
       </c>
@@ -15926,7 +16214,7 @@
         <v>-7.5405120849609375E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:125">
+    <row r="42" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>401</v>
       </c>
@@ -16298,7 +16586,7 @@
         <v>-2.3894309997558594E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:125">
+    <row r="43" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>403</v>
       </c>
@@ -16664,13 +16952,13 @@
         <v>334</v>
       </c>
       <c r="DT43">
-        <v>9.4347000122070313E-3</v>
+        <v>9.4347000122070312E-3</v>
       </c>
       <c r="DU43">
-        <v>9.0845108032226563E-2</v>
+        <v>9.0845108032226562E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:125">
+    <row r="44" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>404</v>
       </c>
@@ -17039,10 +17327,10 @@
         <v>0.11053466796875</v>
       </c>
       <c r="DU44">
-        <v>2.5255203247070313E-2</v>
+        <v>2.5255203247070312E-2</v>
       </c>
     </row>
-    <row r="45" spans="2:125">
+    <row r="45" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>405</v>
       </c>
@@ -17414,7 +17702,7 @@
         <v>1.2354850769042969E-2</v>
       </c>
     </row>
-    <row r="46" spans="2:125">
+    <row r="46" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>406</v>
       </c>
@@ -17786,7 +18074,7 @@
         <v>-0.11988544464111328</v>
       </c>
     </row>
-    <row r="47" spans="2:125">
+    <row r="47" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>407</v>
       </c>
@@ -18158,7 +18446,7 @@
         <v>0.13277530670166016</v>
       </c>
     </row>
-    <row r="48" spans="2:125">
+    <row r="48" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>408</v>
       </c>
@@ -18530,7 +18818,7 @@
         <v>3.894805908203125E-3</v>
       </c>
     </row>
-    <row r="49" spans="2:125">
+    <row r="49" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>409</v>
       </c>
@@ -18902,7 +19190,7 @@
         <v>6.5450668334960938E-3</v>
       </c>
     </row>
-    <row r="50" spans="2:125">
+    <row r="50" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>410</v>
       </c>
@@ -19274,7 +19562,7 @@
         <v>2.8735160827636719E-2</v>
       </c>
     </row>
-    <row r="51" spans="2:125">
+    <row r="51" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>411</v>
       </c>
@@ -19646,7 +19934,7 @@
         <v>-2.489471435546875E-2</v>
       </c>
     </row>
-    <row r="52" spans="2:125">
+    <row r="52" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>412</v>
       </c>
@@ -20018,7 +20306,7 @@
         <v>-8.594512939453125E-3</v>
       </c>
     </row>
-    <row r="53" spans="2:125">
+    <row r="53" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>413</v>
       </c>
@@ -20390,7 +20678,7 @@
         <v>-0.19141483306884766</v>
       </c>
     </row>
-    <row r="54" spans="2:125">
+    <row r="54" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>416</v>
       </c>
@@ -20762,7 +21050,7 @@
         <v>-0.25868415832519531</v>
       </c>
     </row>
-    <row r="55" spans="2:125">
+    <row r="55" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>417</v>
       </c>
@@ -21128,13 +21416,13 @@
         <v>334</v>
       </c>
       <c r="DT55">
-        <v>8.7984085083007813E-2</v>
+        <v>8.7984085083007812E-2</v>
       </c>
       <c r="DU55">
         <v>-0.24521541595458984</v>
       </c>
     </row>
-    <row r="56" spans="2:125">
+    <row r="56" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>418</v>
       </c>
@@ -21506,7 +21794,7 @@
         <v>-0.2476348876953125</v>
       </c>
     </row>
-    <row r="57" spans="2:125">
+    <row r="57" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>419</v>
       </c>
@@ -21878,7 +22166,7 @@
         <v>2.1334648132324219E-2</v>
       </c>
     </row>
-    <row r="58" spans="2:125">
+    <row r="58" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>420</v>
       </c>
@@ -22250,7 +22538,7 @@
         <v>-0.17877388000488281</v>
       </c>
     </row>
-    <row r="59" spans="2:125">
+    <row r="59" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>421</v>
       </c>
@@ -22622,7 +22910,7 @@
         <v>-0.17440509796142578</v>
       </c>
     </row>
-    <row r="60" spans="2:125">
+    <row r="60" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>422</v>
       </c>
@@ -22994,7 +23282,7 @@
         <v>-0.35476493835449219</v>
       </c>
     </row>
-    <row r="61" spans="2:125">
+    <row r="61" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>424</v>
       </c>
@@ -23363,10 +23651,10 @@
         <v>-0.13857555389404297</v>
       </c>
       <c r="DU61">
-        <v>-0.26625442504882813</v>
+        <v>-0.26625442504882812</v>
       </c>
     </row>
-    <row r="62" spans="2:125">
+    <row r="62" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>425</v>
       </c>
@@ -23738,7 +24026,7 @@
         <v>-0.19772529602050781</v>
       </c>
     </row>
-    <row r="63" spans="2:125">
+    <row r="63" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>426</v>
       </c>
@@ -24110,7 +24398,7 @@
         <v>-0.37407398223876953</v>
       </c>
     </row>
-    <row r="64" spans="2:125">
+    <row r="64" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>427</v>
       </c>
@@ -24482,7 +24770,7 @@
         <v>-0.24306392669677734</v>
       </c>
     </row>
-    <row r="65" spans="2:125">
+    <row r="65" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>428</v>
       </c>
@@ -24854,7 +25142,7 @@
         <v>-0.20345401763916016</v>
       </c>
     </row>
-    <row r="66" spans="2:125">
+    <row r="66" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>429</v>
       </c>
@@ -25226,7 +25514,7 @@
         <v>-0.11106491088867188</v>
       </c>
     </row>
-    <row r="67" spans="2:125">
+    <row r="67" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>430</v>
       </c>
@@ -25598,7 +25886,7 @@
         <v>-0.19407463073730469</v>
       </c>
     </row>
-    <row r="68" spans="2:125">
+    <row r="68" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>431</v>
       </c>
@@ -25970,7 +26258,7 @@
         <v>-0.39124488830566406</v>
       </c>
     </row>
-    <row r="69" spans="2:125">
+    <row r="69" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>432</v>
       </c>
@@ -26341,7 +26629,7 @@
         <v>0.15463542938232422</v>
       </c>
     </row>
-    <row r="70" spans="2:125">
+    <row r="70" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>435</v>
       </c>
@@ -26712,7 +27000,7 @@
         <v>2.1894454956054688E-2</v>
       </c>
     </row>
-    <row r="71" spans="2:125">
+    <row r="71" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>436</v>
       </c>
@@ -27080,10 +27368,10 @@
         <v>7.0189476013183594E-2</v>
       </c>
       <c r="DU71">
-        <v>-0.15190505981445313</v>
+        <v>-0.15190505981445312</v>
       </c>
     </row>
-    <row r="72" spans="2:125">
+    <row r="72" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>437</v>
       </c>
@@ -27454,7 +27742,7 @@
         <v>-0.25046539306640625</v>
       </c>
     </row>
-    <row r="73" spans="2:125">
+    <row r="73" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>438</v>
       </c>
@@ -27819,13 +28107,13 @@
         <v>334</v>
       </c>
       <c r="DT73">
-        <v>-7.3709487915039063E-2</v>
+        <v>-7.3709487915039062E-2</v>
       </c>
       <c r="DU73">
         <v>-0.24921512603759766</v>
       </c>
     </row>
-    <row r="74" spans="2:125">
+    <row r="74" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>439</v>
       </c>
@@ -28191,13 +28479,13 @@
         <v>334</v>
       </c>
       <c r="DT74">
-        <v>0.23006057739257813</v>
+        <v>0.23006057739257812</v>
       </c>
       <c r="DU74">
         <v>2.0145416259765625E-2</v>
       </c>
     </row>
-    <row r="75" spans="2:125">
+    <row r="75" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>440</v>
       </c>
@@ -28569,7 +28857,7 @@
         <v>0.12959575653076172</v>
       </c>
     </row>
-    <row r="76" spans="2:125">
+    <row r="76" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>441</v>
       </c>
@@ -28941,7 +29229,7 @@
         <v>0.24750423431396484</v>
       </c>
     </row>
-    <row r="77" spans="2:125">
+    <row r="77" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>442</v>
       </c>
@@ -29313,7 +29601,7 @@
         <v>0.16454505920410156</v>
       </c>
     </row>
-    <row r="78" spans="2:125">
+    <row r="78" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>443</v>
       </c>
@@ -29685,7 +29973,7 @@
         <v>-1.285552978515625E-2</v>
       </c>
     </row>
-    <row r="79" spans="2:125">
+    <row r="79" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>444</v>
       </c>
@@ -30057,7 +30345,7 @@
         <v>-0.12085533142089844</v>
       </c>
     </row>
-    <row r="80" spans="2:125">
+    <row r="80" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>445</v>
       </c>
@@ -30429,7 +30717,7 @@
         <v>-0.32444477081298828</v>
       </c>
     </row>
-    <row r="81" spans="2:125">
+    <row r="81" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>446</v>
       </c>
@@ -30801,7 +31089,7 @@
         <v>-6.9355010986328125E-2</v>
       </c>
     </row>
-    <row r="82" spans="2:125">
+    <row r="82" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>447</v>
       </c>
@@ -31173,7 +31461,7 @@
         <v>-4.2574882507324219E-2</v>
       </c>
     </row>
-    <row r="83" spans="2:125">
+    <row r="83" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>448</v>
       </c>
@@ -31545,7 +31833,7 @@
         <v>0.10209465026855469</v>
       </c>
     </row>
-    <row r="84" spans="2:125">
+    <row r="84" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>449</v>
       </c>
@@ -31914,10 +32202,10 @@
         <v>-0.17796039581298828</v>
       </c>
       <c r="DU84">
-        <v>-7.6974868774414063E-2</v>
+        <v>-7.6974868774414062E-2</v>
       </c>
     </row>
-    <row r="85" spans="2:125">
+    <row r="85" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>450</v>
       </c>
@@ -32289,7 +32577,7 @@
         <v>6.5514564514160156E-2</v>
       </c>
     </row>
-    <row r="86" spans="2:125">
+    <row r="86" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>451</v>
       </c>
@@ -32660,7 +32948,7 @@
         <v>-6.4045906066894531E-2</v>
       </c>
     </row>
-    <row r="87" spans="2:125">
+    <row r="87" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>455</v>
       </c>
@@ -33031,7 +33319,7 @@
         <v>-1.1525154113769531E-2</v>
       </c>
     </row>
-    <row r="88" spans="2:125">
+    <row r="88" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>456</v>
       </c>
@@ -33403,7 +33691,7 @@
         <v>-0.29592514038085938</v>
       </c>
     </row>
-    <row r="89" spans="2:125">
+    <row r="89" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>457</v>
       </c>
@@ -33775,7 +34063,7 @@
         <v>-5.6234359741210938E-2</v>
       </c>
     </row>
-    <row r="90" spans="2:125">
+    <row r="90" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>458</v>
       </c>
@@ -34147,7 +34435,7 @@
         <v>-9.8552703857421875E-3</v>
       </c>
     </row>
-    <row r="91" spans="2:125">
+    <row r="91" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>459</v>
       </c>
@@ -34519,7 +34807,7 @@
         <v>0.10456562042236328</v>
       </c>
     </row>
-    <row r="92" spans="2:125">
+    <row r="92" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>460</v>
       </c>
@@ -34891,7 +35179,7 @@
         <v>8.5248947143554688E-3</v>
       </c>
     </row>
-    <row r="93" spans="2:125">
+    <row r="93" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>461</v>
       </c>
@@ -35263,7 +35551,7 @@
         <v>6.3154220581054688E-2</v>
       </c>
     </row>
-    <row r="94" spans="2:125">
+    <row r="94" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>462</v>
       </c>
@@ -35635,7 +35923,7 @@
         <v>-1.7584800720214844E-2</v>
       </c>
     </row>
-    <row r="95" spans="2:125">
+    <row r="95" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>463</v>
       </c>
@@ -36007,7 +36295,7 @@
         <v>-6.0184478759765625E-2</v>
       </c>
     </row>
-    <row r="96" spans="2:125">
+    <row r="96" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>464</v>
       </c>
@@ -36379,7 +36667,7 @@
         <v>-0.12180519104003906</v>
       </c>
     </row>
-    <row r="97" spans="2:125">
+    <row r="97" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>465</v>
       </c>
@@ -36751,7 +37039,7 @@
         <v>-8.4025382995605469E-2</v>
       </c>
     </row>
-    <row r="98" spans="2:125">
+    <row r="98" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>466</v>
       </c>
@@ -37123,7 +37411,7 @@
         <v>-0.12703514099121094</v>
       </c>
     </row>
-    <row r="99" spans="2:125">
+    <row r="99" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>467</v>
       </c>
@@ -37495,7 +37783,7 @@
         <v>0.82670497894287109</v>
       </c>
     </row>
-    <row r="100" spans="2:125">
+    <row r="100" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>468</v>
       </c>
@@ -37867,7 +38155,7 @@
         <v>9.87548828125E-2</v>
       </c>
     </row>
-    <row r="101" spans="2:125">
+    <row r="101" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>469</v>
       </c>
@@ -38236,10 +38524,10 @@
         <v>-6.7290306091308594E-2</v>
       </c>
       <c r="DU101">
-        <v>-7.9050064086914063E-3</v>
+        <v>-7.9050064086914062E-3</v>
       </c>
     </row>
-    <row r="102" spans="2:125">
+    <row r="102" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>470</v>
       </c>
@@ -38611,7 +38899,7 @@
         <v>0.20879554748535156</v>
       </c>
     </row>
-    <row r="103" spans="2:125">
+    <row r="103" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>471</v>
       </c>
@@ -38977,7 +39265,7 @@
         <v>0.12423419952392578</v>
       </c>
     </row>
-    <row r="104" spans="2:125">
+    <row r="104" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>472</v>
       </c>
@@ -39349,7 +39637,7 @@
         <v>5.942535400390625E-2</v>
       </c>
     </row>
-    <row r="105" spans="2:125">
+    <row r="105" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>473</v>
       </c>
@@ -39721,7 +40009,7 @@
         <v>0.36268520355224609</v>
       </c>
     </row>
-    <row r="106" spans="2:125">
+    <row r="106" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>474</v>
       </c>
@@ -40075,7 +40363,7 @@
         <v>4.0974617004394531E-2</v>
       </c>
     </row>
-    <row r="107" spans="2:125">
+    <row r="107" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>475</v>
       </c>
@@ -40447,7 +40735,7 @@
         <v>9.4264984130859375E-2</v>
       </c>
     </row>
-    <row r="108" spans="2:125">
+    <row r="108" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>476</v>
       </c>
@@ -40819,7 +41107,7 @@
         <v>-0.11754512786865234</v>
       </c>
     </row>
-    <row r="109" spans="2:125">
+    <row r="109" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>477</v>
       </c>
@@ -41191,7 +41479,7 @@
         <v>3.4705162048339844E-2</v>
       </c>
     </row>
-    <row r="110" spans="2:125">
+    <row r="110" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>478</v>
       </c>
@@ -41563,7 +41851,7 @@
         <v>2.17742919921875E-2</v>
       </c>
     </row>
-    <row r="111" spans="2:125">
+    <row r="111" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>479</v>
       </c>
@@ -41932,10 +42220,10 @@
         <v>9.4159126281738281E-2</v>
       </c>
       <c r="DU111">
-        <v>-7.6425552368164063E-2</v>
+        <v>-7.6425552368164062E-2</v>
       </c>
     </row>
-    <row r="112" spans="2:125">
+    <row r="112" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>480</v>
       </c>
@@ -42307,7 +42595,7 @@
         <v>-0.12844467163085938</v>
       </c>
     </row>
-    <row r="113" spans="2:125">
+    <row r="113" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>481</v>
       </c>
@@ -42679,7 +42967,7 @@
         <v>-5.7305335998535156E-2</v>
       </c>
     </row>
-    <row r="114" spans="2:125">
+    <row r="114" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>482</v>
       </c>
@@ -43051,7 +43339,7 @@
         <v>5.4444313049316406E-2</v>
       </c>
     </row>
-    <row r="115" spans="2:125">
+    <row r="115" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>483</v>
       </c>
@@ -43423,7 +43711,7 @@
         <v>-5.2356719970703125E-3</v>
       </c>
     </row>
-    <row r="116" spans="2:125">
+    <row r="116" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>484</v>
       </c>
@@ -43795,7 +44083,7 @@
         <v>2.4374961853027344E-2</v>
       </c>
     </row>
-    <row r="117" spans="2:125">
+    <row r="117" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>485</v>
       </c>
@@ -44161,13 +44449,13 @@
         <v>334</v>
       </c>
       <c r="DT117">
-        <v>-1.7320632934570313E-2</v>
+        <v>-1.7320632934570312E-2</v>
       </c>
       <c r="DU117">
         <v>0.21979427337646484</v>
       </c>
     </row>
-    <row r="118" spans="2:125">
+    <row r="118" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>486</v>
       </c>
@@ -44533,13 +44821,13 @@
         <v>334</v>
       </c>
       <c r="DT118">
-        <v>0.13422012329101563</v>
+        <v>0.13422012329101562</v>
       </c>
       <c r="DU118">
         <v>-3.1805038452148438E-2</v>
       </c>
     </row>
-    <row r="119" spans="2:125">
+    <row r="119" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>487</v>
       </c>
@@ -44911,7 +45199,7 @@
         <v>-0.34660434722900391</v>
       </c>
     </row>
-    <row r="120" spans="2:125">
+    <row r="120" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>488</v>
       </c>
@@ -44934,7 +45222,7 @@
         <v>44971</v>
       </c>
       <c r="I120" s="9">
-        <f t="shared" ref="I120:I151" si="5">_xlfn.DAYS(H120,E120)</f>
+        <f t="shared" ref="I120:I143" si="5">_xlfn.DAYS(H120,E120)</f>
         <v>5</v>
       </c>
       <c r="J120" s="4" t="s">
@@ -45283,7 +45571,7 @@
         <v>-0.11892509460449219</v>
       </c>
     </row>
-    <row r="121" spans="2:125">
+    <row r="121" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>489</v>
       </c>
@@ -45655,7 +45943,7 @@
         <v>-9.9544525146484375E-3</v>
       </c>
     </row>
-    <row r="122" spans="2:125">
+    <row r="122" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>490</v>
       </c>
@@ -46021,13 +46309,13 @@
         <v>334</v>
       </c>
       <c r="DT122">
-        <v>4.3497085571289063E-3</v>
+        <v>4.3497085571289062E-3</v>
       </c>
       <c r="DU122">
         <v>0.11381435394287109</v>
       </c>
     </row>
-    <row r="123" spans="2:125">
+    <row r="123" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>491</v>
       </c>
@@ -46399,7 +46687,7 @@
         <v>-2.4735450744628906E-2</v>
       </c>
     </row>
-    <row r="124" spans="2:125">
+    <row r="124" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>492</v>
       </c>
@@ -46765,13 +47053,13 @@
         <v>334</v>
       </c>
       <c r="DT124">
-        <v>-8.2040786743164063E-2</v>
+        <v>-8.2040786743164062E-2</v>
       </c>
       <c r="DU124">
         <v>0.12009429931640625</v>
       </c>
     </row>
-    <row r="125" spans="2:125">
+    <row r="125" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>493</v>
       </c>
@@ -47143,7 +47431,7 @@
         <v>7.13653564453125E-2</v>
       </c>
     </row>
-    <row r="126" spans="2:125">
+    <row r="126" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>494</v>
       </c>
@@ -47515,7 +47803,7 @@
         <v>-3.8684844970703125E-2</v>
       </c>
     </row>
-    <row r="127" spans="2:125">
+    <row r="127" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>495</v>
       </c>
@@ -47887,7 +48175,7 @@
         <v>-0.20385456085205078</v>
       </c>
     </row>
-    <row r="128" spans="2:125">
+    <row r="128" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>496</v>
       </c>
@@ -48256,10 +48544,10 @@
         <v>-0.20282506942749023</v>
       </c>
       <c r="DU128">
-        <v>-9.3225479125976563E-2</v>
+        <v>-9.3225479125976562E-2</v>
       </c>
     </row>
-    <row r="129" spans="2:125">
+    <row r="129" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>499</v>
       </c>
@@ -48631,7 +48919,7 @@
         <v>-1.9684791564941406E-2</v>
       </c>
     </row>
-    <row r="130" spans="2:125">
+    <row r="130" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>500</v>
       </c>
@@ -49000,10 +49288,10 @@
         <v>-8.1944942474365234E-2</v>
       </c>
       <c r="DU130">
-        <v>0.14128494262695313</v>
+        <v>0.14128494262695312</v>
       </c>
     </row>
-    <row r="131" spans="2:125">
+    <row r="131" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>501</v>
       </c>
@@ -49375,7 +49663,7 @@
         <v>-7.593536376953125E-2</v>
       </c>
     </row>
-    <row r="132" spans="2:125">
+    <row r="132" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>502</v>
       </c>
@@ -49747,7 +50035,7 @@
         <v>-4.291534423828125E-2</v>
       </c>
     </row>
-    <row r="133" spans="2:125">
+    <row r="133" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>503</v>
       </c>
@@ -50119,7 +50407,7 @@
         <v>4.3765068054199219E-2</v>
       </c>
     </row>
-    <row r="134" spans="2:125">
+    <row r="134" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>504</v>
       </c>
@@ -50491,7 +50779,7 @@
         <v>-4.5035362243652344E-2</v>
       </c>
     </row>
-    <row r="135" spans="2:125">
+    <row r="135" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>505</v>
       </c>
@@ -50863,7 +51151,7 @@
         <v>5.7805061340332031E-2</v>
       </c>
     </row>
-    <row r="136" spans="2:125">
+    <row r="136" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>506</v>
       </c>
@@ -51232,10 +51520,10 @@
         <v>-2.8985500335693359E-2</v>
       </c>
       <c r="DU136">
-        <v>5.8855056762695313E-2</v>
+        <v>5.8855056762695312E-2</v>
       </c>
     </row>
-    <row r="137" spans="2:125">
+    <row r="137" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>507</v>
       </c>
@@ -51607,7 +51895,7 @@
         <v>-3.8214683532714844E-2</v>
       </c>
     </row>
-    <row r="138" spans="2:125">
+    <row r="138" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
         <v>508</v>
       </c>
@@ -51976,10 +52264,10 @@
         <v>-1.5053749084472656E-3</v>
       </c>
       <c r="DU138">
-        <v>-1.1835098266601563E-2</v>
+        <v>-1.1835098266601562E-2</v>
       </c>
     </row>
-    <row r="139" spans="2:125">
+    <row r="139" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>509</v>
       </c>
@@ -52351,7 +52639,7 @@
         <v>5.5294990539550788E-2</v>
       </c>
     </row>
-    <row r="140" spans="2:125">
+    <row r="140" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>510</v>
       </c>
@@ -52723,7 +53011,7 @@
         <v>7.7342987060546875E-3</v>
       </c>
     </row>
-    <row r="141" spans="2:125">
+    <row r="141" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
         <v>511</v>
       </c>
@@ -53095,7 +53383,7 @@
         <v>6.3364982604980469E-2</v>
       </c>
     </row>
-    <row r="142" spans="2:125">
+    <row r="142" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>512</v>
       </c>
@@ -53467,7 +53755,7 @@
         <v>4.2585372924804688E-2</v>
       </c>
     </row>
-    <row r="143" spans="2:125">
+    <row r="143" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
         <v>513</v>
       </c>
@@ -53839,7 +54127,7 @@
         <v>3.5625457763671875E-2</v>
       </c>
     </row>
-    <row r="144" spans="2:125">
+    <row r="144" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>514</v>
       </c>
@@ -54210,7 +54498,7 @@
         <v>-3.734588623046875E-3</v>
       </c>
     </row>
-    <row r="145" spans="2:125">
+    <row r="145" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>517</v>
       </c>
@@ -54581,7 +54869,7 @@
         <v>9.86480712890625E-3</v>
       </c>
     </row>
-    <row r="146" spans="2:125">
+    <row r="146" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
         <v>518</v>
       </c>
@@ -54952,7 +55240,7 @@
         <v>3.4695625305175781E-2</v>
       </c>
     </row>
-    <row r="147" spans="2:125">
+    <row r="147" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
         <v>519</v>
       </c>
@@ -55323,7 +55611,7 @@
         <v>-2.7264595031738281E-2</v>
       </c>
     </row>
-    <row r="148" spans="2:125">
+    <row r="148" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
         <v>520</v>
       </c>
@@ -55692,10 +55980,10 @@
         <v>6.0065746307373047E-2</v>
       </c>
       <c r="DU148">
-        <v>-7.6234817504882813E-2</v>
+        <v>-7.6234817504882812E-2</v>
       </c>
     </row>
-    <row r="149" spans="2:125">
+    <row r="149" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
         <v>521</v>
       </c>
@@ -56067,7 +56355,7 @@
         <v>-5.25054931640625E-2</v>
       </c>
     </row>
-    <row r="150" spans="2:125">
+    <row r="150" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
         <v>522</v>
       </c>
@@ -56439,7 +56727,7 @@
         <v>-0.12958526611328125</v>
       </c>
     </row>
-    <row r="151" spans="2:125">
+    <row r="151" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
         <v>523</v>
       </c>
@@ -56811,7 +57099,7 @@
         <v>2.2365570068359375E-2</v>
       </c>
     </row>
-    <row r="152" spans="2:125">
+    <row r="152" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
         <v>524</v>
       </c>
@@ -57183,7 +57471,7 @@
         <v>-6.1514854431152344E-2</v>
       </c>
     </row>
-    <row r="153" spans="2:125">
+    <row r="153" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
         <v>525</v>
       </c>
@@ -57555,7 +57843,7 @@
         <v>-0.13458538055419922</v>
       </c>
     </row>
-    <row r="154" spans="2:125">
+    <row r="154" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
         <v>526</v>
       </c>
@@ -57927,7 +58215,7 @@
         <v>1.6055107116699219E-2</v>
       </c>
     </row>
-    <row r="155" spans="2:125">
+    <row r="155" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
         <v>527</v>
       </c>
@@ -58299,7 +58587,7 @@
         <v>-1.9845008850097656E-2</v>
       </c>
     </row>
-    <row r="156" spans="2:125">
+    <row r="156" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
         <v>528</v>
       </c>
@@ -58671,7 +58959,7 @@
         <v>-8.045196533203125E-3</v>
       </c>
     </row>
-    <row r="157" spans="2:125">
+    <row r="157" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
         <v>529</v>
       </c>
@@ -59043,7 +59331,7 @@
         <v>-8.2995414733886719E-2</v>
       </c>
     </row>
-    <row r="158" spans="2:125">
+    <row r="158" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
         <v>530</v>
       </c>
@@ -59415,7 +59703,7 @@
         <v>-9.0847015380859375E-3</v>
       </c>
     </row>
-    <row r="159" spans="2:125">
+    <row r="159" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
         <v>531</v>
       </c>
@@ -59787,7 +60075,7 @@
         <v>3.8274765014648438E-2</v>
       </c>
     </row>
-    <row r="160" spans="2:125">
+    <row r="160" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
         <v>532</v>
       </c>
@@ -60159,7 +60447,7 @@
         <v>1.8944740295410156E-2</v>
       </c>
     </row>
-    <row r="161" spans="2:125">
+    <row r="161" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
         <v>533</v>
       </c>
@@ -60530,7 +60818,7 @@
         <v>-9.2334747314453125E-2</v>
       </c>
     </row>
-    <row r="162" spans="2:125">
+    <row r="162" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
         <v>535</v>
       </c>
@@ -60901,7 +61189,7 @@
         <v>6.0535430908203125E-2</v>
       </c>
     </row>
-    <row r="163" spans="2:125">
+    <row r="163" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
         <v>536</v>
       </c>
@@ -61272,7 +61560,7 @@
         <v>2.20947265625E-2</v>
       </c>
     </row>
-    <row r="164" spans="2:125">
+    <row r="164" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
         <v>537</v>
       </c>
@@ -61640,10 +61928,10 @@
         <v>4.1875362396240234E-2</v>
       </c>
       <c r="DU164">
-        <v>-7.4754714965820313E-2</v>
+        <v>-7.4754714965820312E-2</v>
       </c>
     </row>
-    <row r="165" spans="2:125">
+    <row r="165" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
         <v>538</v>
       </c>
@@ -62014,7 +62302,7 @@
         <v>-0.13855457305908203</v>
       </c>
     </row>
-    <row r="166" spans="2:125">
+    <row r="166" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
         <v>539</v>
       </c>
@@ -62386,7 +62674,7 @@
         <v>-1.7794609069824219E-2</v>
       </c>
     </row>
-    <row r="167" spans="2:125">
+    <row r="167" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
         <v>540</v>
       </c>
@@ -62755,10 +63043,10 @@
         <v>2.6304721832275391E-2</v>
       </c>
       <c r="DU167">
-        <v>-0.13510513305664063</v>
+        <v>-0.13510513305664062</v>
       </c>
     </row>
-    <row r="168" spans="2:125">
+    <row r="168" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
         <v>541</v>
       </c>
@@ -63130,7 +63418,7 @@
         <v>-2.9574394226074219E-2</v>
       </c>
     </row>
-    <row r="169" spans="2:125">
+    <row r="169" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
         <v>542</v>
       </c>
@@ -63502,7 +63790,7 @@
         <v>-6.6294670104980469E-2</v>
       </c>
     </row>
-    <row r="170" spans="2:125">
+    <row r="170" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
         <v>543</v>
       </c>
@@ -63871,10 +64159,10 @@
         <v>-0.12818574905395508</v>
       </c>
       <c r="DU170">
-        <v>-1.8495559692382813E-2</v>
+        <v>-1.8495559692382812E-2</v>
       </c>
     </row>
-    <row r="171" spans="2:125">
+    <row r="171" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
         <v>544</v>
       </c>
@@ -64246,7 +64534,7 @@
         <v>-6.4649581909179688E-3</v>
       </c>
     </row>
-    <row r="172" spans="2:125">
+    <row r="172" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
         <v>545</v>
       </c>
@@ -64618,7 +64906,7 @@
         <v>-8.6415290832519531E-2</v>
       </c>
     </row>
-    <row r="173" spans="2:125">
+    <row r="173" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
         <v>546</v>
       </c>
@@ -64990,7 +65278,7 @@
         <v>-4.3614387512207031E-2</v>
       </c>
     </row>
-    <row r="174" spans="2:125">
+    <row r="174" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
         <v>547</v>
       </c>
@@ -65362,7 +65650,7 @@
         <v>-6.4064979553222656E-2</v>
       </c>
     </row>
-    <row r="175" spans="2:125">
+    <row r="175" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
         <v>548</v>
       </c>
@@ -65734,7 +66022,7 @@
         <v>-8.7334632873535156E-2</v>
       </c>
     </row>
-    <row r="176" spans="2:125">
+    <row r="176" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
         <v>549</v>
       </c>
@@ -66106,7 +66394,7 @@
         <v>8.5844993591308594E-2</v>
       </c>
     </row>
-    <row r="177" spans="2:125">
+    <row r="177" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
         <v>550</v>
       </c>
@@ -66478,7 +66766,7 @@
         <v>1.8624305725097656E-2</v>
       </c>
     </row>
-    <row r="178" spans="2:125">
+    <row r="178" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
         <v>551</v>
       </c>
@@ -66850,7 +67138,7 @@
         <v>5.5904388427734382E-2</v>
       </c>
     </row>
-    <row r="179" spans="2:125">
+    <row r="179" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
         <v>552</v>
       </c>
@@ -67222,7 +67510,7 @@
         <v>0.13184547424316406</v>
       </c>
     </row>
-    <row r="180" spans="2:125">
+    <row r="180" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
         <v>553</v>
       </c>
@@ -67594,7 +67882,7 @@
         <v>5.77545166015625E-3</v>
       </c>
     </row>
-    <row r="181" spans="2:125">
+    <row r="181" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
         <v>554</v>
       </c>
@@ -67963,10 +68251,10 @@
         <v>-9.1064929962158203E-2</v>
       </c>
       <c r="DU181">
-        <v>-1.1415481567382813E-2</v>
+        <v>-1.1415481567382812E-2</v>
       </c>
     </row>
-    <row r="182" spans="2:125">
+    <row r="182" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
         <v>557</v>
       </c>
@@ -68338,7 +68626,7 @@
         <v>0.15606498718261719</v>
       </c>
     </row>
-    <row r="183" spans="2:125">
+    <row r="183" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
         <v>558</v>
       </c>
@@ -68710,7 +68998,7 @@
         <v>2.074432373046875E-2</v>
       </c>
     </row>
-    <row r="184" spans="2:125">
+    <row r="184" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
         <v>559</v>
       </c>
@@ -69082,7 +69370,7 @@
         <v>-0.140625</v>
       </c>
     </row>
-    <row r="185" spans="2:125">
+    <row r="185" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
         <v>560</v>
       </c>
@@ -69454,7 +69742,7 @@
         <v>-0.16727542877197266</v>
       </c>
     </row>
-    <row r="186" spans="2:125">
+    <row r="186" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
         <v>561</v>
       </c>
@@ -69826,7 +70114,7 @@
         <v>-5.8785438537597656E-2</v>
       </c>
     </row>
-    <row r="187" spans="2:125">
+    <row r="187" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B187" s="4" t="s">
         <v>562</v>
       </c>
@@ -69921,7 +70209,7 @@
       <c r="CW187" s="7"/>
       <c r="DJ187" s="7"/>
     </row>
-    <row r="188" spans="2:125">
+    <row r="188" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
         <v>563</v>
       </c>
@@ -70293,7 +70581,7 @@
         <v>0.14532470703125</v>
       </c>
     </row>
-    <row r="189" spans="2:125">
+    <row r="189" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
         <v>564</v>
       </c>
@@ -70665,7 +70953,7 @@
         <v>-2.6035308837890625E-2</v>
       </c>
     </row>
-    <row r="190" spans="2:125">
+    <row r="190" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
         <v>565</v>
       </c>
@@ -71037,7 +71325,7 @@
         <v>-1.3965606689453125E-2</v>
       </c>
     </row>
-    <row r="191" spans="2:125">
+    <row r="191" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
         <v>566</v>
       </c>
@@ -71409,7 +71697,7 @@
         <v>4.0724754333496094E-2</v>
       </c>
     </row>
-    <row r="192" spans="2:125">
+    <row r="192" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
         <v>567</v>
       </c>
@@ -71781,7 +72069,7 @@
         <v>6.7144393920898438E-2</v>
       </c>
     </row>
-    <row r="193" spans="2:125">
+    <row r="193" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
         <v>569</v>
       </c>
@@ -72153,7 +72441,7 @@
         <v>0.193695068359375</v>
       </c>
     </row>
-    <row r="194" spans="2:125">
+    <row r="194" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
         <v>570</v>
       </c>
@@ -72525,7 +72813,7 @@
         <v>-6.3314437866210938E-2</v>
       </c>
     </row>
-    <row r="195" spans="2:125">
+    <row r="195" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
         <v>571</v>
       </c>
@@ -72896,7 +73184,7 @@
         <v>-5.4090499877929688E-2</v>
       </c>
     </row>
-    <row r="196" spans="2:125">
+    <row r="196" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
         <v>573</v>
       </c>
@@ -73267,7 +73555,7 @@
         <v>9.0674400329589844E-2</v>
       </c>
     </row>
-    <row r="197" spans="2:125">
+    <row r="197" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
         <v>574</v>
       </c>
@@ -73638,7 +73926,7 @@
         <v>-5.3375244140625E-2</v>
       </c>
     </row>
-    <row r="198" spans="2:125">
+    <row r="198" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
         <v>575</v>
       </c>
@@ -74009,7 +74297,7 @@
         <v>0.12519454956054688</v>
       </c>
     </row>
-    <row r="199" spans="2:125">
+    <row r="199" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
         <v>576</v>
       </c>
@@ -74381,7 +74669,7 @@
         <v>-0.12466526031494141</v>
       </c>
     </row>
-    <row r="200" spans="2:125">
+    <row r="200" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
         <v>577</v>
       </c>
@@ -74750,10 +75038,10 @@
         <v>-1.7334461212158203E-2</v>
       </c>
       <c r="DU200">
-        <v>-0.16194534301757813</v>
+        <v>-0.16194534301757812</v>
       </c>
     </row>
-    <row r="201" spans="2:125">
+    <row r="201" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
         <v>578</v>
       </c>
@@ -75125,7 +75413,7 @@
         <v>-0.14400482177734375</v>
       </c>
     </row>
-    <row r="202" spans="2:125">
+    <row r="202" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
         <v>579</v>
       </c>
@@ -75497,7 +75785,7 @@
         <v>-0.20155525207519531</v>
       </c>
     </row>
-    <row r="203" spans="2:125">
+    <row r="203" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
         <v>580</v>
       </c>
@@ -75869,7 +76157,7 @@
         <v>-4.0531158447265625E-2</v>
       </c>
     </row>
-    <row r="204" spans="2:125">
+    <row r="204" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
         <v>581</v>
       </c>
@@ -76241,7 +76529,7 @@
         <v>0.14161396026611328</v>
       </c>
     </row>
-    <row r="205" spans="2:125">
+    <row r="205" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
         <v>582</v>
       </c>
@@ -76613,7 +76901,7 @@
         <v>-0.13195610046386719</v>
       </c>
     </row>
-    <row r="206" spans="2:125">
+    <row r="206" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
         <v>583</v>
       </c>
@@ -76985,7 +77273,7 @@
         <v>0.18200492858886719</v>
       </c>
     </row>
-    <row r="207" spans="2:125">
+    <row r="207" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
         <v>584</v>
       </c>
@@ -77357,7 +77645,7 @@
         <v>0.21204471588134766</v>
       </c>
     </row>
-    <row r="208" spans="2:125">
+    <row r="208" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
         <v>585</v>
       </c>
@@ -77729,7 +78017,7 @@
         <v>0.20978450775146484</v>
       </c>
     </row>
-    <row r="209" spans="2:125">
+    <row r="209" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
         <v>586</v>
       </c>
@@ -78101,7 +78389,7 @@
         <v>-0.20127582550048828</v>
       </c>
     </row>
-    <row r="210" spans="2:125">
+    <row r="210" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
         <v>587</v>
       </c>
@@ -78472,7 +78760,7 @@
         <v>-0.2913055419921875</v>
       </c>
     </row>
-    <row r="211" spans="2:125">
+    <row r="211" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
         <v>588</v>
       </c>
@@ -78840,10 +79128,10 @@
         <v>-0.11478137969970703</v>
       </c>
       <c r="DU211">
-        <v>-1.0614395141601563E-3</v>
+        <v>-1.0614395141601562E-3</v>
       </c>
     </row>
-    <row r="212" spans="2:125">
+    <row r="212" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
         <v>590</v>
       </c>
@@ -79214,7 +79502,7 @@
         <v>-9.7874641418457031E-2</v>
       </c>
     </row>
-    <row r="213" spans="2:125">
+    <row r="213" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B213" t="s">
         <v>592</v>
       </c>
@@ -79585,7 +79873,7 @@
         <v>-5.60150146484375E-2</v>
       </c>
     </row>
-    <row r="214" spans="2:125">
+    <row r="214" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B214" t="s">
         <v>594</v>
       </c>
@@ -79956,7 +80244,7 @@
         <v>8.2184791564941406E-2</v>
       </c>
     </row>
-    <row r="215" spans="2:125">
+    <row r="215" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B215" t="s">
         <v>596</v>
       </c>
@@ -80325,10 +80613,10 @@
         <v>2.2544384002685547E-2</v>
       </c>
       <c r="DU215">
-        <v>7.7394485473632813E-2</v>
+        <v>7.7394485473632812E-2</v>
       </c>
     </row>
-    <row r="216" spans="2:125">
+    <row r="216" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B216" t="s">
         <v>597</v>
       </c>
@@ -80700,7 +80988,7 @@
         <v>0.11961460113525391</v>
       </c>
     </row>
-    <row r="217" spans="2:125">
+    <row r="217" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B217" t="s">
         <v>598</v>
       </c>
@@ -81069,10 +81357,10 @@
         <v>5.0025463104248047E-2</v>
       </c>
       <c r="DU217">
-        <v>-4.3664932250976563E-2</v>
+        <v>-4.3664932250976562E-2</v>
       </c>
     </row>
-    <row r="218" spans="2:125">
+    <row r="218" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B218" t="s">
         <v>599</v>
       </c>
@@ -81444,7 +81732,7 @@
         <v>-6.8015098571777344E-2</v>
       </c>
     </row>
-    <row r="219" spans="2:125">
+    <row r="219" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B219" t="s">
         <v>600</v>
       </c>
@@ -81816,7 +82104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="2:125">
+    <row r="220" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B220" t="s">
         <v>601</v>
       </c>
@@ -82188,7 +82476,7 @@
         <v>-0.20975494384765625</v>
       </c>
     </row>
-    <row r="221" spans="2:125">
+    <row r="221" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B221" t="s">
         <v>602</v>
       </c>
@@ -82560,7 +82848,7 @@
         <v>-0.10098552703857422</v>
       </c>
     </row>
-    <row r="222" spans="2:125">
+    <row r="222" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B222" t="s">
         <v>603</v>
       </c>
@@ -82932,7 +83220,7 @@
         <v>-8.4247589111328125E-3</v>
       </c>
     </row>
-    <row r="223" spans="2:125">
+    <row r="223" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B223" t="s">
         <v>604</v>
       </c>
@@ -83304,7 +83592,7 @@
         <v>3.4765243530273438E-2</v>
       </c>
     </row>
-    <row r="224" spans="2:125">
+    <row r="224" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B224" t="s">
         <v>605</v>
       </c>
@@ -83676,7 +83964,7 @@
         <v>-1.8355369567871094E-2</v>
       </c>
     </row>
-    <row r="225" spans="2:125">
+    <row r="225" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B225" t="s">
         <v>606</v>
       </c>
@@ -84048,7 +84336,7 @@
         <v>6.4635276794433594E-2</v>
       </c>
     </row>
-    <row r="226" spans="2:125">
+    <row r="226" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B226" t="s">
         <v>607</v>
       </c>
@@ -84420,7 +84708,7 @@
         <v>8.742523193359375E-2</v>
       </c>
     </row>
-    <row r="227" spans="2:125">
+    <row r="227" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B227" t="s">
         <v>608</v>
       </c>
@@ -84792,7 +85080,7 @@
         <v>5.1339149475097656E-2</v>
       </c>
     </row>
-    <row r="228" spans="2:125">
+    <row r="228" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B228" t="s">
         <v>610</v>
       </c>
@@ -85161,10 +85449,10 @@
         <v>-0.18375110626220703</v>
       </c>
       <c r="DU228">
-        <v>-5.8610916137695313E-2</v>
+        <v>-5.8610916137695312E-2</v>
       </c>
     </row>
-    <row r="229" spans="2:125">
+    <row r="229" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B229" t="s">
         <v>611</v>
       </c>
@@ -85536,7 +85824,7 @@
         <v>-4.4002532958984375E-3</v>
       </c>
     </row>
-    <row r="230" spans="2:125">
+    <row r="230" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B230" t="s">
         <v>612</v>
       </c>
@@ -85908,7 +86196,7 @@
         <v>3.38592529296875E-2</v>
       </c>
     </row>
-    <row r="231" spans="2:125">
+    <row r="231" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B231" t="s">
         <v>613</v>
       </c>
@@ -86280,7 +86568,7 @@
         <v>3.311920166015625E-2</v>
       </c>
     </row>
-    <row r="232" spans="2:125">
+    <row r="232" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B232" t="s">
         <v>614</v>
       </c>
@@ -86652,7 +86940,7 @@
         <v>8.3230018615722656E-2</v>
       </c>
     </row>
-    <row r="234" spans="2:125">
+    <row r="234" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B234" t="s">
         <v>615</v>
       </c>
@@ -86933,7 +87221,7 @@
         <v>1.52478</v>
       </c>
     </row>
-    <row r="235" spans="2:125">
+    <row r="235" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B235" t="s">
         <v>616</v>
       </c>
@@ -87217,7 +87505,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="236" spans="2:125">
+    <row r="236" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B236" t="s">
         <v>616</v>
       </c>
@@ -87501,7 +87789,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="237" spans="2:125">
+    <row r="237" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B237" t="s">
         <v>616</v>
       </c>
@@ -87785,7 +88073,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="238" spans="2:125">
+    <row r="238" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B238" t="s">
         <v>616</v>
       </c>
@@ -88069,7 +88357,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="239" spans="2:125">
+    <row r="239" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B239" t="s">
         <v>616</v>
       </c>
@@ -88353,7 +88641,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="240" spans="2:125">
+    <row r="240" spans="2:125" x14ac:dyDescent="0.2">
       <c r="B240" t="s">
         <v>616</v>
       </c>
@@ -88637,7 +88925,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="241" spans="2:122">
+    <row r="241" spans="2:122" x14ac:dyDescent="0.2">
       <c r="B241" t="s">
         <v>616</v>
       </c>
@@ -88921,7 +89209,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="242" spans="2:122">
+    <row r="242" spans="2:122" x14ac:dyDescent="0.2">
       <c r="B242" t="s">
         <v>616</v>
       </c>
@@ -89205,7 +89493,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="243" spans="2:122">
+    <row r="243" spans="2:122" x14ac:dyDescent="0.2">
       <c r="B243" t="s">
         <v>620</v>
       </c>
@@ -89486,7 +89774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="2:122">
+    <row r="244" spans="2:122" x14ac:dyDescent="0.2">
       <c r="B244" t="s">
         <v>621</v>
       </c>
@@ -89777,13 +90065,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75254FAF-29F7-8F46-AAE4-E7D61B252E12}">
   <dimension ref="A2:DT18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="CV1" workbookViewId="0">
       <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="31.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:124" s="9" customFormat="1">
+    <row r="2" spans="1:124" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>289</v>
       </c>
@@ -90157,7 +90448,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:124">
+    <row r="3" spans="1:124" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>632</v>
       </c>
@@ -90461,7 +90752,7 @@
         <v>0.19666576385498047</v>
       </c>
     </row>
-    <row r="4" spans="1:124">
+    <row r="4" spans="1:124" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>633</v>
       </c>
@@ -90765,7 +91056,7 @@
         <v>0.23305511474609375</v>
       </c>
     </row>
-    <row r="5" spans="1:124">
+    <row r="5" spans="1:124" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>634</v>
       </c>
@@ -91069,7 +91360,7 @@
         <v>0.11480522155761719</v>
       </c>
     </row>
-    <row r="6" spans="1:124">
+    <row r="6" spans="1:124" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>635</v>
       </c>
@@ -91373,7 +91664,7 @@
         <v>0.14660453796386719</v>
       </c>
     </row>
-    <row r="7" spans="1:124">
+    <row r="7" spans="1:124" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>636</v>
       </c>
@@ -91677,7 +91968,7 @@
         <v>0.27931404113769531</v>
       </c>
     </row>
-    <row r="8" spans="1:124">
+    <row r="8" spans="1:124" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>637</v>
       </c>
@@ -91981,7 +92272,7 @@
         <v>0.28639507293701172</v>
       </c>
     </row>
-    <row r="9" spans="1:124">
+    <row r="9" spans="1:124" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>638</v>
       </c>
@@ -92285,7 +92576,7 @@
         <v>0.22034406661987305</v>
       </c>
     </row>
-    <row r="10" spans="1:124">
+    <row r="10" spans="1:124" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>639</v>
       </c>
@@ -92589,7 +92880,7 @@
         <v>0.18410444259643555</v>
       </c>
     </row>
-    <row r="11" spans="1:124">
+    <row r="11" spans="1:124" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>640</v>
       </c>
@@ -92893,7 +93184,7 @@
         <v>1.5789985656738281E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:124">
+    <row r="12" spans="1:124" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>641</v>
       </c>
@@ -93197,7 +93488,7 @@
         <v>2.6030540466308594E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:124">
+    <row r="13" spans="1:124" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>642</v>
       </c>
@@ -93501,7 +93792,7 @@
         <v>0.39870929718017578</v>
       </c>
     </row>
-    <row r="14" spans="1:124">
+    <row r="14" spans="1:124" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>643</v>
       </c>
@@ -93799,13 +94090,13 @@
         <v>334</v>
       </c>
       <c r="DS14">
-        <v>-5.3110122680664063E-2</v>
+        <v>-5.3110122680664062E-2</v>
       </c>
       <c r="DT14">
         <v>0.2526397705078125</v>
       </c>
     </row>
-    <row r="15" spans="1:124">
+    <row r="15" spans="1:124" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>644</v>
       </c>
@@ -94109,7 +94400,7 @@
         <v>0.11536502838134766</v>
       </c>
     </row>
-    <row r="16" spans="1:124">
+    <row r="16" spans="1:124" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>644</v>
       </c>
@@ -94413,7 +94704,7 @@
         <v>6.5374374389648438E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:124">
+    <row r="17" spans="2:124" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>645</v>
       </c>
@@ -94717,7 +95008,7 @@
         <v>0.40426540374755859</v>
       </c>
     </row>
-    <row r="18" spans="2:124">
+    <row r="18" spans="2:124" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>646</v>
       </c>
